--- a/DTVT_BLUE/Input/Constant/Tracks_Direction.xlsx
+++ b/DTVT_BLUE/Input/Constant/Tracks_Direction.xlsx
@@ -16,12 +16,474 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="156">
   <si>
     <t>Track</t>
   </si>
   <si>
     <t>Direction In Increasing Kp</t>
+  </si>
+  <si>
+    <t>TR_3B_ASW_ITW</t>
+  </si>
+  <si>
+    <t>TR_3C_ITW_ITW</t>
+  </si>
+  <si>
+    <t>TR_4B_ASW_ITW</t>
+  </si>
+  <si>
+    <t>TR_I_1637_VLN</t>
+  </si>
+  <si>
+    <t>TR_I_1635_VLN</t>
+  </si>
+  <si>
+    <t>TR_I_1651_VLN</t>
+  </si>
+  <si>
+    <t>TR_I_1653_VLN</t>
+  </si>
+  <si>
+    <t>TR_I_1687_HDS</t>
+  </si>
+  <si>
+    <t>TR_I_1695_HDS</t>
+  </si>
+  <si>
+    <t>TR_I_1719_HDS</t>
+  </si>
+  <si>
+    <t>TR_I_1721_HDS</t>
+  </si>
+  <si>
+    <t>TR_I_1775_ZD</t>
+  </si>
+  <si>
+    <t>TR_I_1773_ZD</t>
+  </si>
+  <si>
+    <t>TR_I_1615_ITW</t>
+  </si>
+  <si>
+    <t>TR_I_1617_ITW</t>
+  </si>
+  <si>
+    <t>TR_S_1697_HDS</t>
+  </si>
+  <si>
+    <t>TR_S_1921_ZD</t>
+  </si>
+  <si>
+    <t>TR_S_1915_ZD</t>
+  </si>
+  <si>
+    <t>TR_S_EOT_1529_ITW</t>
+  </si>
+  <si>
+    <t>TR_S_1505_EOT_ITW</t>
+  </si>
+  <si>
+    <t>TR_S_1531_EOT_ITW</t>
+  </si>
+  <si>
+    <t>TR_S_1509_EOT_ITW</t>
+  </si>
+  <si>
+    <t>TR_I_1513_ITW</t>
+  </si>
+  <si>
+    <t>TR_I_1511_ITW</t>
+  </si>
+  <si>
+    <t>TR_I_1523_ITW</t>
+  </si>
+  <si>
+    <t>TR_S_EOT_1521_ITW</t>
+  </si>
+  <si>
+    <t>TR_I_1501_ITW</t>
+  </si>
+  <si>
+    <t>TR_S_ITW1_ITW</t>
+  </si>
+  <si>
+    <t>TR_S_ITW2_ITW</t>
+  </si>
+  <si>
+    <t>TR_S_ITW3_ITW</t>
+  </si>
+  <si>
+    <t>TR_7A_ND_ZD</t>
+  </si>
+  <si>
+    <t>TR_8_ND_ZD</t>
+  </si>
+  <si>
+    <t>TR_S_EOT_3207_ND</t>
+  </si>
+  <si>
+    <t>TR_S_EOT_3213_ND</t>
+  </si>
+  <si>
+    <t>TR_S_EOT_3211_ND</t>
+  </si>
+  <si>
+    <t>TR_S_EOT_3205_ND</t>
+  </si>
+  <si>
+    <t>TR_I_3201_ND</t>
+  </si>
+  <si>
+    <t>TR_I_3203_ND</t>
+  </si>
+  <si>
+    <t>TR_I_3223_ND</t>
+  </si>
+  <si>
+    <t>TR_I_3225_ND</t>
+  </si>
+  <si>
+    <t>TR_I_3255_CSN</t>
+  </si>
+  <si>
+    <t>TR_I_3257_CSN</t>
+  </si>
+  <si>
+    <t>TR_I_3273_CSN</t>
+  </si>
+  <si>
+    <t>TR_S_EOT_3277_CSN</t>
+  </si>
+  <si>
+    <t>TR_I_3313_CSN</t>
+  </si>
+  <si>
+    <t>TR_I_3309_CSN</t>
+  </si>
+  <si>
+    <t>TR_I_3423_VZG</t>
+  </si>
+  <si>
+    <t>TR_I_3421_VZG</t>
+  </si>
+  <si>
+    <t>TR_I_3503_ZD</t>
+  </si>
+  <si>
+    <t>TR_I_3501_ZD</t>
+  </si>
+  <si>
+    <t>TR_I_3521_ZD</t>
+  </si>
+  <si>
+    <t>TR_I_3523_ZD</t>
+  </si>
+  <si>
+    <t>TR_7B_ZD_ZD</t>
+  </si>
+  <si>
+    <t>TR_EOT_3213X_ND</t>
+  </si>
+  <si>
+    <t>TR_2A_CS_GN</t>
+  </si>
+  <si>
+    <t>TR_1A_CS_GN</t>
+  </si>
+  <si>
+    <t>TR_I_203_CS</t>
+  </si>
+  <si>
+    <t>TR_I_201_CS</t>
+  </si>
+  <si>
+    <t>TR_S_EOT_239_WPP</t>
+  </si>
+  <si>
+    <t>TR_I_235_WPP</t>
+  </si>
+  <si>
+    <t>TR_I_237_WPP</t>
+  </si>
+  <si>
+    <t>TR_I_245_WPP</t>
+  </si>
+  <si>
+    <t>TR_I_247_WPP</t>
+  </si>
+  <si>
+    <t>TR_I_261_SLW</t>
+  </si>
+  <si>
+    <t>TR_I_263_SLW</t>
+  </si>
+  <si>
+    <t>TR_S_EOT_309_SLW</t>
+  </si>
+  <si>
+    <t>TR_I_307_SLW</t>
+  </si>
+  <si>
+    <t>TR_S_315_EOS_SLW</t>
+  </si>
+  <si>
+    <t>TR_S_343_LCM</t>
+  </si>
+  <si>
+    <t>TR_S_313_EOT_LCM</t>
+  </si>
+  <si>
+    <t>TR_I_329_SLW</t>
+  </si>
+  <si>
+    <t>TR_I_327_SLW</t>
+  </si>
+  <si>
+    <t>TR_I_319_SLW</t>
+  </si>
+  <si>
+    <t>TR_I_345_LCM</t>
+  </si>
+  <si>
+    <t>TR_I_379_LCM</t>
+  </si>
+  <si>
+    <t>TR_I_377_LCM</t>
+  </si>
+  <si>
+    <t>TR_S_375_LCM</t>
+  </si>
+  <si>
+    <t>TR_S_373_LCM</t>
+  </si>
+  <si>
+    <t>TR_S_347_LCM</t>
+  </si>
+  <si>
+    <t>TR_I_371_LCM</t>
+  </si>
+  <si>
+    <t>TR_I_369_LCM</t>
+  </si>
+  <si>
+    <t>TR_S_367_EOT_LCM</t>
+  </si>
+  <si>
+    <t>TR_S_317_LCM</t>
+  </si>
+  <si>
+    <t>TR_S_421_LCM</t>
+  </si>
+  <si>
+    <t>TR_I_411_LCM</t>
+  </si>
+  <si>
+    <t>TR_I_409_LCM</t>
+  </si>
+  <si>
+    <t>TR_I_403_MDW</t>
+  </si>
+  <si>
+    <t>TR_6B_MDW_MDW</t>
+  </si>
+  <si>
+    <t>TR_I_431_MDW</t>
+  </si>
+  <si>
+    <t>TR_I_429_MDW</t>
+  </si>
+  <si>
+    <t>TR_I_425_MDW</t>
+  </si>
+  <si>
+    <t>TR_6C_MDW_MDW</t>
+  </si>
+  <si>
+    <t>TR_I_451_MDW</t>
+  </si>
+  <si>
+    <t>TR_I_453_MDW</t>
+  </si>
+  <si>
+    <t>TR_I_441_MDW</t>
+  </si>
+  <si>
+    <t>TR_I_443_MDW</t>
+  </si>
+  <si>
+    <t>TR_I_449_MDW</t>
+  </si>
+  <si>
+    <t>TR_I_447_MDW</t>
+  </si>
+  <si>
+    <t>TR_5D_MDW_DMZ</t>
+  </si>
+  <si>
+    <t>TR_6D_MDW_DMZ</t>
+  </si>
+  <si>
+    <t>TR_5C_MDW_MDW</t>
+  </si>
+  <si>
+    <t>TR_5B_MDW_MDW</t>
+  </si>
+  <si>
+    <t>TR_I_611_SVT</t>
+  </si>
+  <si>
+    <t>TR_I_613_SVT</t>
+  </si>
+  <si>
+    <t>TR_I_633_BLW</t>
+  </si>
+  <si>
+    <t>TR_S_627_EOT_BLW</t>
+  </si>
+  <si>
+    <t>TR_I_639_BLW</t>
+  </si>
+  <si>
+    <t>TR_I_641_BLW</t>
+  </si>
+  <si>
+    <t>TR_I_659_GN</t>
+  </si>
+  <si>
+    <t>TR_I_661_GN</t>
+  </si>
+  <si>
+    <t>TR_I_665_GN</t>
+  </si>
+  <si>
+    <t>TR_I_667_GN</t>
+  </si>
+  <si>
+    <t>TR_S_673_EOT_GN</t>
+  </si>
+  <si>
+    <t>TR_S_671_EOT_GN</t>
+  </si>
+  <si>
+    <t>TR_I_511_DMZ</t>
+  </si>
+  <si>
+    <t>TR_I_513_DMZ</t>
+  </si>
+  <si>
+    <t>TR_S_517_EOS_DMZ</t>
+  </si>
+  <si>
+    <t>TR_S_519_EOS_DMZ</t>
+  </si>
+  <si>
+    <t>TR_S_531_EOT_DMZ</t>
+  </si>
+  <si>
+    <t>TR_5E_DMZ_GPP</t>
+  </si>
+  <si>
+    <t>TR_6E_DMZ_GPP</t>
+  </si>
+  <si>
+    <t>TR_I_547_DMZ</t>
+  </si>
+  <si>
+    <t>TR_I_549_DMZ</t>
+  </si>
+  <si>
+    <t>TR_I_567_GPP</t>
+  </si>
+  <si>
+    <t>TR_I_569_GPP</t>
+  </si>
+  <si>
+    <t>TR_I_575_GPP</t>
+  </si>
+  <si>
+    <t>TR_I_573_GPP</t>
+  </si>
+  <si>
+    <t>TR_S_579_EOT_GPP</t>
+  </si>
+  <si>
+    <t>TR_S_583_EOT_GPP</t>
+  </si>
+  <si>
+    <t>TR_S_581_EOT_GPP</t>
+  </si>
+  <si>
+    <t>TR_S_585_EOT_GPP</t>
+  </si>
+  <si>
+    <t>TR_3A_SLW_ZD</t>
+  </si>
+  <si>
+    <t>TR_4A_SLW_ZD</t>
+  </si>
+  <si>
+    <t>TR_6A_MDW_OAS</t>
+  </si>
+  <si>
+    <t>TR_5A_MDW_OAS</t>
+  </si>
+  <si>
+    <t>TR_I_1833_ZD</t>
+  </si>
+  <si>
+    <t>TR_S_1831A_ZD</t>
+  </si>
+  <si>
+    <t>TR_I_1797_ZD</t>
+  </si>
+  <si>
+    <t>TR_I_1913_ZD</t>
+  </si>
+  <si>
+    <t>TR_S_1799_EOT_ZD</t>
+  </si>
+  <si>
+    <t>TR_I_1905_ZD</t>
+  </si>
+  <si>
+    <t>TR_I_1903_ZD</t>
+  </si>
+  <si>
+    <t>TR_I_1917_ZD</t>
+  </si>
+  <si>
+    <t>TR_I_1919_ZD</t>
+  </si>
+  <si>
+    <t>TR_I_1901_ZD</t>
+  </si>
+  <si>
+    <t>TR_I_1907_ZD</t>
+  </si>
+  <si>
+    <t>TR_I_1807_ZD</t>
+  </si>
+  <si>
+    <t>TR_I_1803_ZD</t>
+  </si>
+  <si>
+    <t>TR_11_ZD_ZD</t>
+  </si>
+  <si>
+    <t>TR_12_ZD_ZD</t>
+  </si>
+  <si>
+    <t>TR_I_1857_OAS</t>
+  </si>
+  <si>
+    <t>TR_I_1859_OAS</t>
+  </si>
+  <si>
+    <t>TR_S_109A_DMZ</t>
+  </si>
+  <si>
+    <t>Up</t>
   </si>
 </sst>
 </file>
@@ -391,15 +853,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -412,212 +874,1228 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
